--- a/exceltocsv/public/reports/employee_dtr/Tabang,Nestor NiÃ±o.xlsx
+++ b/exceltocsv/public/reports/employee_dtr/Tabang,Nestor NiÃ±o.xlsx
@@ -953,7 +953,9 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1318,7 +1320,7 @@
         <v>57</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>57</v>
